--- a/data/TB_2025.xlsx
+++ b/data/TB_2025.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XA XUI - CVN\Documents\GitHub\Planning_agent\CY_PBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52ebbb93f357813a/10_Works/GitHub/Planning_Agent_NDD/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6582138-62CA-44CD-9C34-C9ABEF85A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D6582138-62CA-44CD-9C34-C9ABEF85A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B347512-F120-42A2-8AB4-2CEC12160956}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19420" windowHeight="10420" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$134</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="271">
   <si>
     <t>Account No</t>
   </si>
@@ -840,12 +843,6 @@
   </si>
   <si>
     <t>8118</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>Xác định kết quả kinh doanh</t>
   </si>
   <si>
     <t>Category</t>
@@ -923,6 +920,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1245,24 +1246,24 @@
   <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F133" sqref="F84:F133"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1303,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="2">
         <v>6270753793</v>
@@ -1326,7 +1327,9 @@
       <c r="H2" s="2">
         <v>6085663659</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="2">
         <v>1733695818</v>
@@ -1363,7 +1366,9 @@
       <c r="H3" s="2">
         <v>1959820658</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="2">
         <v>1733695818</v>
@@ -1400,7 +1405,9 @@
       <c r="H4" s="2">
         <v>1959820658</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5" s="2">
         <v>4537057975</v>
@@ -1437,7 +1444,9 @@
       <c r="H5" s="2">
         <v>4125843001</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D6" s="2">
         <v>4537057975</v>
@@ -1474,7 +1483,9 @@
       <c r="H6" s="2">
         <v>4125843001</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -1488,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1506,8 +1517,12 @@
       <c r="G7" s="2">
         <v>3935933826</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>1</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1529,7 +1544,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1539,8 +1554,12 @@
       <c r="G8" s="2">
         <v>3935933826</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -1554,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="2">
         <v>787548208</v>
@@ -1593,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1601,7 +1620,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" s="2">
         <v>787548208</v>
@@ -1632,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" s="2">
         <v>787548208</v>
@@ -1671,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1679,7 +1698,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1689,8 +1708,12 @@
       <c r="G12" s="2">
         <v>921801214</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>1</v>
       </c>
@@ -1704,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1712,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1722,8 +1745,12 @@
       <c r="G13" s="2">
         <v>921801214</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>0</v>
       </c>
@@ -1737,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1745,7 +1772,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1755,8 +1782,12 @@
       <c r="G14" s="2">
         <v>160311244</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>0</v>
       </c>
@@ -1770,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1778,7 +1809,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1788,8 +1819,12 @@
       <c r="G15" s="2">
         <v>761489970</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
       <c r="J15">
         <v>0</v>
       </c>
@@ -1803,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1811,7 +1846,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D16" s="2">
         <v>655664226</v>
@@ -1826,7 +1861,9 @@
       <c r="H16" s="2">
         <v>188107200</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>1</v>
       </c>
@@ -1840,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1848,7 +1885,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D17" s="2">
         <v>655664226</v>
@@ -1863,7 +1900,9 @@
       <c r="H17" s="2">
         <v>188107200</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -1877,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1885,7 +1924,7 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" s="2">
         <v>655664226</v>
@@ -1900,7 +1939,9 @@
       <c r="H18" s="2">
         <v>188107200</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>0</v>
       </c>
@@ -1914,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1922,7 +1963,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="2">
         <v>52850560</v>
@@ -1937,7 +1978,9 @@
       <c r="H19" s="2">
         <v>188107200</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -1951,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1959,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="2">
         <v>602813666</v>
@@ -1971,8 +2014,12 @@
       <c r="G20" s="2">
         <v>607317657</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
       <c r="J20">
         <v>0</v>
       </c>
@@ -1986,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1994,7 +2041,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D21" s="2">
         <v>335576938</v>
@@ -2006,8 +2053,12 @@
       <c r="G21" s="2">
         <v>335576938</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
       <c r="J21">
         <v>1</v>
       </c>
@@ -2021,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2029,7 +2080,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2039,8 +2090,12 @@
       <c r="G22" s="2">
         <v>1173435348</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
       <c r="J22">
         <v>1</v>
       </c>
@@ -2054,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2117,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2072,8 +2127,12 @@
       <c r="G23" s="2">
         <v>1173435348</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2087,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2095,7 +2154,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2108,7 +2167,9 @@
       <c r="H24" s="2">
         <v>439054511</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
       <c r="J24">
         <v>1</v>
       </c>
@@ -2122,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2130,7 +2191,7 @@
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2143,7 +2204,9 @@
       <c r="H25" s="2">
         <v>439054511</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
       <c r="J25">
         <v>0</v>
       </c>
@@ -2157,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2165,7 +2228,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D26" s="2">
         <v>39320000</v>
@@ -2176,7 +2239,9 @@
       <c r="H26" s="2">
         <v>39320000</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
       <c r="J26">
         <v>1</v>
       </c>
@@ -2190,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2198,7 +2263,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D27" s="2">
         <v>39320000</v>
@@ -2209,7 +2274,9 @@
       <c r="H27" s="2">
         <v>39320000</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2223,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2231,7 +2298,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
@@ -2243,7 +2310,9 @@
       <c r="G28" s="2">
         <v>9829992</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="2">
         <v>38282358</v>
       </c>
@@ -2260,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2268,7 +2337,7 @@
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
@@ -2280,7 +2349,9 @@
       <c r="G29" s="2">
         <v>9829992</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
       <c r="I29" s="2">
         <v>38282358</v>
       </c>
@@ -2297,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2305,7 +2376,7 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
@@ -2317,7 +2388,9 @@
       <c r="G30" s="2">
         <v>9829992</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
       <c r="I30" s="2">
         <v>38282358</v>
       </c>
@@ -2334,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2342,7 +2415,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D31" s="2">
         <v>149686568</v>
@@ -2357,7 +2430,9 @@
       <c r="H31" s="2">
         <v>184463221</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
       <c r="J31">
         <v>1</v>
       </c>
@@ -2371,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2379,7 +2454,7 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D32" s="2">
         <v>118340962</v>
@@ -2394,7 +2469,9 @@
       <c r="H32" s="2">
         <v>123301727</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
       <c r="J32">
         <v>0</v>
       </c>
@@ -2408,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2416,7 +2493,7 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D33" s="2">
         <v>118340962</v>
@@ -2431,7 +2508,9 @@
       <c r="H33" s="2">
         <v>123301727</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -2445,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2453,7 +2532,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D34" s="2">
         <v>31345606</v>
@@ -2468,7 +2547,9 @@
       <c r="H34" s="2">
         <v>61161494</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
       <c r="J34">
         <v>0</v>
       </c>
@@ -2482,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2490,7 +2571,7 @@
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D35" s="2">
         <v>21962129</v>
@@ -2505,7 +2586,9 @@
       <c r="H35" s="2">
         <v>43743692</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
       <c r="J35">
         <v>0</v>
       </c>
@@ -2519,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2527,7 +2610,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D36" s="2">
         <v>9383477</v>
@@ -2542,7 +2625,9 @@
       <c r="H36" s="2">
         <v>17417802</v>
       </c>
-      <c r="I36" s="2"/>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
       <c r="J36">
         <v>0</v>
       </c>
@@ -2556,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2564,7 +2649,7 @@
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D37" s="2">
         <v>148099200</v>
@@ -2577,7 +2662,9 @@
       <c r="H37" s="2">
         <v>208099200</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
       <c r="J37">
         <v>1</v>
       </c>
@@ -2591,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -2599,7 +2686,7 @@
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D38" s="2">
         <v>148099200</v>
@@ -2612,7 +2699,9 @@
       <c r="H38" s="2">
         <v>208099200</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
       <c r="J38">
         <v>0</v>
       </c>
@@ -2626,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -2634,7 +2723,7 @@
         <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D39" s="2">
         <v>19175523</v>
@@ -2667,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -2675,7 +2764,7 @@
         <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D40" s="2">
         <v>19175523</v>
@@ -2708,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2716,7 +2805,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D41" s="2">
         <v>19175523</v>
@@ -2749,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2757,7 +2846,7 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
@@ -2769,7 +2858,9 @@
       <c r="G42" s="2">
         <v>7868857008</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
       <c r="I42" s="2">
         <v>288261400</v>
       </c>
@@ -2786,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2794,7 +2885,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D43" s="2">
         <v>123407221</v>
@@ -2827,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2835,7 +2926,7 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
@@ -2847,7 +2938,9 @@
       <c r="G44" s="2">
         <v>1841441878</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
       <c r="I44" s="2">
         <v>182968196</v>
       </c>
@@ -2864,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2872,7 +2965,7 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
@@ -2884,7 +2977,9 @@
       <c r="G45" s="2">
         <v>1085108610</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
       <c r="I45" s="2">
         <v>182968196</v>
       </c>
@@ -2901,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -2909,7 +3004,7 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
@@ -2921,7 +3016,9 @@
       <c r="G46" s="2">
         <v>1085108610</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
       <c r="I46" s="2">
         <v>182968196</v>
       </c>
@@ -2938,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -2946,7 +3043,7 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2956,8 +3053,12 @@
       <c r="G47" s="2">
         <v>756333268</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
       <c r="J47">
         <v>0</v>
       </c>
@@ -2971,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2979,7 +3080,7 @@
         <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2989,8 +3090,12 @@
       <c r="G48" s="2">
         <v>193211740</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
       <c r="J48">
         <v>0</v>
       </c>
@@ -3004,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -3012,7 +3117,7 @@
         <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3022,8 +3127,12 @@
       <c r="G49" s="2">
         <v>193211740</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
       <c r="J49">
         <v>0</v>
       </c>
@@ -3037,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -3045,7 +3154,7 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D50" s="2">
         <v>123407221</v>
@@ -3056,7 +3165,9 @@
       <c r="H50" s="2">
         <v>123407221</v>
       </c>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
       <c r="J50">
         <v>0</v>
       </c>
@@ -3070,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -3078,7 +3189,7 @@
         <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2">
@@ -3090,7 +3201,9 @@
       <c r="G51" s="2">
         <v>2165665311</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
       <c r="I51" s="2">
         <v>278005338</v>
       </c>
@@ -3107,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -3115,7 +3228,7 @@
         <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -3125,8 +3238,12 @@
       <c r="G52" s="2">
         <v>9902094</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
       <c r="J52">
         <v>0</v>
       </c>
@@ -3140,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -3148,7 +3265,7 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -3158,8 +3275,12 @@
       <c r="G53" s="2">
         <v>9902094</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
       <c r="J53">
         <v>0</v>
       </c>
@@ -3173,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -3181,7 +3302,7 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3191,8 +3312,12 @@
       <c r="G54" s="2">
         <v>3300000</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
       <c r="J54">
         <v>0</v>
       </c>
@@ -3206,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -3214,7 +3339,7 @@
         <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3224,8 +3349,12 @@
       <c r="G55" s="2">
         <v>3300000</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
       <c r="J55">
         <v>0</v>
       </c>
@@ -3239,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -3247,7 +3376,7 @@
         <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
@@ -3259,7 +3388,9 @@
       <c r="G56" s="2">
         <v>1711485937</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
       <c r="I56" s="2">
         <v>37232786</v>
       </c>
@@ -3276,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -3284,7 +3415,7 @@
         <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2">
@@ -3296,7 +3427,9 @@
       <c r="G57" s="2">
         <v>1711485937</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
       <c r="I57" s="2">
         <v>37232786</v>
       </c>
@@ -3313,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -3321,7 +3454,7 @@
         <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2">
@@ -3333,7 +3466,9 @@
       <c r="G58" s="2">
         <v>853895070</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
       <c r="I58" s="2">
         <v>37232786</v>
       </c>
@@ -3350,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -3358,7 +3493,7 @@
         <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3368,8 +3503,12 @@
       <c r="G59" s="2">
         <v>857590867</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
       <c r="J59">
         <v>0</v>
       </c>
@@ -3383,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -3391,7 +3530,7 @@
         <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
@@ -3403,7 +3542,9 @@
       <c r="G60" s="2">
         <v>-234662244</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
       <c r="I60" s="2">
         <v>167202194</v>
       </c>
@@ -3420,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -3428,7 +3569,7 @@
         <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
@@ -3440,7 +3581,9 @@
       <c r="G61" s="2">
         <v>1333892291</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
       <c r="I61" s="2">
         <v>51525307</v>
       </c>
@@ -3457,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -3465,7 +3608,7 @@
         <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -3475,8 +3618,12 @@
       <c r="G62" s="2">
         <v>12742038</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
       <c r="J62">
         <v>0</v>
       </c>
@@ -3490,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -3498,7 +3645,7 @@
         <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3508,8 +3655,12 @@
       <c r="G63" s="2">
         <v>162460981</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
       <c r="J63">
         <v>0</v>
       </c>
@@ -3523,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -3531,7 +3682,7 @@
         <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3541,8 +3692,12 @@
       <c r="G64" s="2">
         <v>28669583</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
       <c r="J64">
         <v>0</v>
       </c>
@@ -3556,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -3564,7 +3719,7 @@
         <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3574,8 +3729,12 @@
       <c r="G65" s="2">
         <v>12742039</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
       <c r="J65">
         <v>0</v>
       </c>
@@ -3589,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -3597,7 +3756,7 @@
         <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
@@ -3609,7 +3768,9 @@
       <c r="G66" s="2">
         <v>1117277650</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
       <c r="I66" s="2">
         <v>51525307</v>
       </c>
@@ -3626,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -3634,7 +3795,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
@@ -3646,7 +3807,9 @@
       <c r="G67" s="2">
         <v>1117277650</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
       <c r="I67" s="2">
         <v>51525307</v>
       </c>
@@ -3663,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -3671,7 +3834,7 @@
         <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2">
@@ -3683,7 +3846,9 @@
       <c r="G68" s="2">
         <v>1117277650</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
       <c r="I68" s="2">
         <v>51525307</v>
       </c>
@@ -3700,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -3708,7 +3873,7 @@
         <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
@@ -3716,7 +3881,9 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
       <c r="I69" s="2">
         <v>13746000000</v>
       </c>
@@ -3733,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -3741,7 +3908,7 @@
         <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
@@ -3749,7 +3916,9 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
       <c r="I70" s="2">
         <v>13746000000</v>
       </c>
@@ -3766,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -3774,7 +3943,7 @@
         <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3784,8 +3953,12 @@
       <c r="G71" s="2">
         <v>44587513</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
       <c r="J71">
         <v>1</v>
       </c>
@@ -3799,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -3807,7 +3980,7 @@
         <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3817,8 +3990,12 @@
       <c r="G72" s="2">
         <v>44587513</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
       <c r="J72">
         <v>0</v>
       </c>
@@ -3832,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -3840,7 +4017,7 @@
         <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D73" s="2">
         <v>6290591391</v>
@@ -3857,7 +4034,9 @@
       <c r="H73" s="2">
         <v>7097760881</v>
       </c>
-      <c r="I73" s="2"/>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
       <c r="J73">
         <v>1</v>
       </c>
@@ -3871,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -3879,7 +4058,7 @@
         <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D74" s="2">
         <v>6290591391</v>
@@ -3894,7 +4073,9 @@
       <c r="H74" s="2">
         <v>6176390545</v>
       </c>
-      <c r="I74" s="2"/>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
       <c r="J74">
         <v>0</v>
       </c>
@@ -3908,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -3916,7 +4097,7 @@
         <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2">
@@ -3931,7 +4112,9 @@
       <c r="H75" s="2">
         <v>921370336</v>
       </c>
-      <c r="I75" s="2"/>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
       <c r="J75">
         <v>0</v>
       </c>
@@ -3945,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -3953,7 +4136,7 @@
         <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3976,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -3984,7 +4167,7 @@
         <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -4007,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -4015,7 +4198,7 @@
         <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4038,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -4046,7 +4229,7 @@
         <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -4069,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -4077,7 +4260,7 @@
         <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4100,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -4108,7 +4291,7 @@
         <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -4131,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -4139,7 +4322,7 @@
         <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -4162,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -4170,7 +4353,7 @@
         <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4193,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -4201,7 +4384,7 @@
         <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -4224,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -4232,7 +4415,7 @@
         <v>179</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -4255,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -4263,7 +4446,7 @@
         <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -4286,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -4294,7 +4477,7 @@
         <v>183</v>
       </c>
       <c r="C87" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -4317,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -4325,7 +4508,7 @@
         <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -4348,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -4356,7 +4539,7 @@
         <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -4379,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -4387,7 +4570,7 @@
         <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4410,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -4418,7 +4601,7 @@
         <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4441,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -4449,7 +4632,7 @@
         <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -4472,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -4480,7 +4663,7 @@
         <v>195</v>
       </c>
       <c r="C93" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -4503,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>196</v>
       </c>
@@ -4511,7 +4694,7 @@
         <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -4534,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>198</v>
       </c>
@@ -4542,7 +4725,7 @@
         <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -4565,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -4573,7 +4756,7 @@
         <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4596,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>202</v>
       </c>
@@ -4604,7 +4787,7 @@
         <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4627,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -4635,7 +4818,7 @@
         <v>205</v>
       </c>
       <c r="C98" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -4658,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -4666,7 +4849,7 @@
         <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -4689,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -4697,7 +4880,7 @@
         <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4720,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -4728,7 +4911,7 @@
         <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4751,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -4759,7 +4942,7 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4782,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -4790,7 +4973,7 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4813,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -4821,7 +5004,7 @@
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4844,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -4852,7 +5035,7 @@
         <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4875,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>219</v>
       </c>
@@ -4883,7 +5066,7 @@
         <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4906,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -4914,7 +5097,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4937,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -4945,7 +5128,7 @@
         <v>174</v>
       </c>
       <c r="C108" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4968,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -4976,7 +5159,7 @@
         <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4999,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>225</v>
       </c>
@@ -5007,7 +5190,7 @@
         <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5030,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>226</v>
       </c>
@@ -5038,7 +5221,7 @@
         <v>227</v>
       </c>
       <c r="C111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5061,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -5069,7 +5252,7 @@
         <v>229</v>
       </c>
       <c r="C112" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5092,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -5100,7 +5283,7 @@
         <v>231</v>
       </c>
       <c r="C113" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5123,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -5131,7 +5314,7 @@
         <v>233</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5154,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -5162,7 +5345,7 @@
         <v>235</v>
       </c>
       <c r="C115" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5185,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -5193,7 +5376,7 @@
         <v>237</v>
       </c>
       <c r="C116" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5216,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>238</v>
       </c>
@@ -5224,7 +5407,7 @@
         <v>239</v>
       </c>
       <c r="C117" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5247,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>240</v>
       </c>
@@ -5255,7 +5438,7 @@
         <v>241</v>
       </c>
       <c r="C118" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5278,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -5286,7 +5469,7 @@
         <v>205</v>
       </c>
       <c r="C119" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5309,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -5317,7 +5500,7 @@
         <v>244</v>
       </c>
       <c r="C120" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5340,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -5348,7 +5531,7 @@
         <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5371,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>247</v>
       </c>
@@ -5379,7 +5562,7 @@
         <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5402,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>248</v>
       </c>
@@ -5410,7 +5593,7 @@
         <v>249</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5433,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>250</v>
       </c>
@@ -5441,7 +5624,7 @@
         <v>251</v>
       </c>
       <c r="C124" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5464,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -5472,7 +5655,7 @@
         <v>253</v>
       </c>
       <c r="C125" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5495,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>254</v>
       </c>
@@ -5503,7 +5686,7 @@
         <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5526,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>256</v>
       </c>
@@ -5534,7 +5717,7 @@
         <v>257</v>
       </c>
       <c r="C127" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5557,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -5565,7 +5748,7 @@
         <v>259</v>
       </c>
       <c r="C128" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5588,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>260</v>
       </c>
@@ -5596,7 +5779,7 @@
         <v>174</v>
       </c>
       <c r="C129" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5619,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>261</v>
       </c>
@@ -5627,7 +5810,7 @@
         <v>262</v>
       </c>
       <c r="C130" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5650,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>263</v>
       </c>
@@ -5658,7 +5841,7 @@
         <v>264</v>
       </c>
       <c r="C131" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5681,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>265</v>
       </c>
@@ -5689,7 +5872,7 @@
         <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5712,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -5720,7 +5903,7 @@
         <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5743,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -5751,7 +5934,7 @@
         <v>173</v>
       </c>
       <c r="C134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5774,40 +5957,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" t="s">
-        <v>269</v>
-      </c>
-      <c r="C135" t="s">
-        <v>272</v>
-      </c>
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="2">
-        <v>13918620382</v>
-      </c>
-      <c r="G135" s="2">
-        <v>13918620382</v>
-      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
-      <c r="J135">
-        <v>1</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M134" xr:uid="{664DE13B-5BAE-4C9A-BF44-B141580213B2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/TB_2025.xlsx
+++ b/data/TB_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52ebbb93f357813a/10_Works/GitHub/Planning_Agent_NDD/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D6582138-62CA-44CD-9C34-C9ABEF85A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B347512-F120-42A2-8AB4-2CEC12160956}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{D6582138-62CA-44CD-9C34-C9ABEF85A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD5C88D9-1732-4228-8276-594068816A1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
   </bookViews>
@@ -1246,10 +1246,10 @@
   <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="F76" sqref="F76:G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,8 @@
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4140,9 +4141,11 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>11320490154</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4171,7 +4174,9 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
       <c r="G77" s="2">
         <v>9761488800</v>
       </c>
@@ -4202,7 +4207,9 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
       <c r="G78" s="2">
         <v>238844934</v>
       </c>
@@ -4233,7 +4240,9 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
       <c r="G79" s="2">
         <v>1320156420</v>
       </c>
@@ -4264,7 +4273,9 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
       <c r="G80" s="2">
         <v>0</v>
       </c>
@@ -4295,7 +4306,9 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
       <c r="G81" s="2">
         <v>907591</v>
       </c>
@@ -4326,7 +4339,9 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
       <c r="G82" s="2">
         <v>199741089</v>
       </c>
@@ -4357,7 +4372,9 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
       <c r="G83" s="2">
         <v>42738013</v>
       </c>
@@ -4391,7 +4408,9 @@
       <c r="F84" s="2">
         <v>0</v>
       </c>
-      <c r="G84" s="2"/>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84">
@@ -4422,7 +4441,9 @@
       <c r="F85" s="2">
         <v>8209584118</v>
       </c>
-      <c r="G85" s="2"/>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85">
@@ -4453,7 +4474,9 @@
       <c r="F86" s="2">
         <v>1209043426</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86">
@@ -4484,7 +4507,9 @@
       <c r="F87" s="2">
         <v>0</v>
       </c>
-      <c r="G87" s="2"/>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87">
@@ -4515,7 +4540,9 @@
       <c r="F88" s="2">
         <v>62044912</v>
       </c>
-      <c r="G88" s="2"/>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88">
@@ -4546,7 +4573,9 @@
       <c r="F89" s="2">
         <v>0</v>
       </c>
-      <c r="G89" s="2"/>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89">
@@ -4577,7 +4606,9 @@
       <c r="F90" s="2">
         <v>0</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90">
@@ -4608,7 +4639,9 @@
       <c r="F91" s="2">
         <v>433406484</v>
       </c>
-      <c r="G91" s="2"/>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91">
@@ -4639,7 +4672,9 @@
       <c r="F92" s="2">
         <v>-725841475</v>
       </c>
-      <c r="G92" s="2"/>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92">
@@ -4670,7 +4705,9 @@
       <c r="F93" s="2">
         <v>78329673</v>
       </c>
-      <c r="G93" s="2"/>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93">
@@ -4701,7 +4738,9 @@
       <c r="F94" s="2">
         <v>362570806</v>
       </c>
-      <c r="G94" s="2"/>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94">
@@ -4732,7 +4771,9 @@
       <c r="F95" s="2">
         <v>815277317</v>
       </c>
-      <c r="G95" s="2"/>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95">
@@ -4763,7 +4804,9 @@
       <c r="F96" s="2">
         <v>61558431</v>
       </c>
-      <c r="G96" s="2"/>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96">
@@ -4794,7 +4837,9 @@
       <c r="F97" s="2">
         <v>106263049</v>
       </c>
-      <c r="G97" s="2"/>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97">
@@ -4825,7 +4870,9 @@
       <c r="F98" s="2">
         <v>0</v>
       </c>
-      <c r="G98" s="2"/>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98">
@@ -4856,7 +4903,9 @@
       <c r="F99" s="2">
         <v>4914996</v>
       </c>
-      <c r="G99" s="2"/>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99">
@@ -4887,7 +4936,9 @@
       <c r="F100" s="2">
         <v>0</v>
       </c>
-      <c r="G100" s="2"/>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100">
@@ -4918,7 +4969,9 @@
       <c r="F101" s="2">
         <v>165928141</v>
       </c>
-      <c r="G101" s="2"/>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101">
@@ -4949,7 +5002,9 @@
       <c r="F102" s="2">
         <v>136205867</v>
       </c>
-      <c r="G102" s="2"/>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102">
@@ -4980,7 +5035,9 @@
       <c r="F103" s="2">
         <v>200642454</v>
       </c>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103">
@@ -5011,7 +5068,9 @@
       <c r="F104" s="2">
         <v>5546036</v>
       </c>
-      <c r="G104" s="2"/>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104">
@@ -5042,7 +5101,9 @@
       <c r="F105" s="2">
         <v>7740016</v>
       </c>
-      <c r="G105" s="2"/>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105">
@@ -5073,7 +5134,9 @@
       <c r="F106" s="2">
         <v>126194631</v>
       </c>
-      <c r="G106" s="2"/>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106">
@@ -5104,7 +5167,9 @@
       <c r="F107" s="2">
         <v>20000</v>
       </c>
-      <c r="G107" s="2"/>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107">
@@ -5135,7 +5200,9 @@
       <c r="F108" s="2">
         <v>0</v>
       </c>
-      <c r="G108" s="2"/>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108">
@@ -5166,7 +5233,9 @@
       <c r="F109" s="2">
         <v>25479000</v>
       </c>
-      <c r="G109" s="2"/>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109">
@@ -5197,7 +5266,9 @@
       <c r="F110" s="2">
         <v>54617294</v>
       </c>
-      <c r="G110" s="2"/>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110">
@@ -5228,7 +5299,9 @@
       <c r="F111" s="2">
         <v>64696904</v>
       </c>
-      <c r="G111" s="2"/>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111">
@@ -5259,7 +5332,9 @@
       <c r="F112" s="2">
         <v>0</v>
       </c>
-      <c r="G112" s="2"/>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112">
@@ -5290,7 +5365,9 @@
       <c r="F113" s="2">
         <v>0</v>
       </c>
-      <c r="G113" s="2"/>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113">
@@ -5321,7 +5398,9 @@
       <c r="F114" s="2">
         <v>-725841475</v>
       </c>
-      <c r="G114" s="2"/>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114">
@@ -5352,7 +5431,9 @@
       <c r="F115" s="2">
         <v>362570806</v>
       </c>
-      <c r="G115" s="2"/>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115">
@@ -5383,7 +5464,9 @@
       <c r="F116" s="2">
         <v>815277317</v>
       </c>
-      <c r="G116" s="2"/>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116">
@@ -5414,7 +5497,9 @@
       <c r="F117" s="2">
         <v>61558431</v>
       </c>
-      <c r="G117" s="2"/>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117">
@@ -5445,7 +5530,9 @@
       <c r="F118" s="2">
         <v>18481352</v>
       </c>
-      <c r="G118" s="2"/>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118">
@@ -5476,7 +5563,9 @@
       <c r="F119" s="2">
         <v>0</v>
       </c>
-      <c r="G119" s="2"/>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119">
@@ -5507,7 +5596,9 @@
       <c r="F120" s="2">
         <v>4914996</v>
       </c>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120">
@@ -5538,7 +5629,9 @@
       <c r="F121" s="2">
         <v>3000000</v>
       </c>
-      <c r="G121" s="2"/>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121">
@@ -5569,7 +5662,9 @@
       <c r="F122" s="2">
         <v>0</v>
       </c>
-      <c r="G122" s="2"/>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122">
@@ -5600,7 +5695,9 @@
       <c r="F123" s="2">
         <v>66880810</v>
       </c>
-      <c r="G123" s="2"/>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123">
@@ -5631,7 +5728,9 @@
       <c r="F124" s="2">
         <v>223164508</v>
       </c>
-      <c r="G124" s="2"/>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124">
@@ -5662,7 +5761,9 @@
       <c r="F125" s="2">
         <v>22680000</v>
       </c>
-      <c r="G125" s="2"/>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125">
@@ -5693,7 +5794,9 @@
       <c r="F126" s="2">
         <v>29030767</v>
       </c>
-      <c r="G126" s="2"/>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126">
@@ -5724,7 +5827,9 @@
       <c r="F127" s="2">
         <v>32643059</v>
       </c>
-      <c r="G127" s="2"/>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127">
@@ -5755,7 +5860,9 @@
       <c r="F128" s="2">
         <v>79257186</v>
       </c>
-      <c r="G128" s="2"/>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128">
@@ -5786,7 +5893,9 @@
       <c r="F129" s="2">
         <v>61450000</v>
       </c>
-      <c r="G129" s="2"/>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129">
@@ -5814,7 +5923,9 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
       <c r="G130" s="2">
         <v>20915431</v>
       </c>
@@ -5845,7 +5956,9 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
       <c r="G131" s="2">
         <v>2690422</v>
       </c>
@@ -5876,7 +5989,9 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
       <c r="G132" s="2">
         <v>18225009</v>
       </c>
@@ -5910,7 +6025,9 @@
       <c r="F133" s="2">
         <v>46872777</v>
       </c>
-      <c r="G133" s="2"/>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133">
@@ -5941,7 +6058,9 @@
       <c r="F134" s="2">
         <v>46872777</v>
       </c>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134">

--- a/data/TB_2025.xlsx
+++ b/data/TB_2025.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52ebbb93f357813a/10_Works/GitHub/Planning_Agent_NDD/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XA XUI - CVN\Documents\GitHub\Planning_Agent_NDD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{D6582138-62CA-44CD-9C34-C9ABEF85A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD5C88D9-1732-4228-8276-594068816A1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E904F9-DC4F-495E-8A18-D2FCB3037F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="275">
   <si>
     <t>Account No</t>
   </si>
@@ -852,6 +852,18 @@
   </si>
   <si>
     <t>PL</t>
+  </si>
+  <si>
+    <t>13111x</t>
+  </si>
+  <si>
+    <t>Khách hàng trả tiền trước</t>
+  </si>
+  <si>
+    <t>33111x</t>
+  </si>
+  <si>
+    <t>Trả trước cho người bán</t>
   </si>
 </sst>
 </file>
@@ -872,6 +884,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -920,10 +933,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,28 +1252,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664DE13B-5BAE-4C9A-BF44-B141580213B2}">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F76" sqref="F76:G134"/>
+      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1327,9 @@
       <c r="D2" s="2">
         <v>6270753793</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
       <c r="F2" s="2">
         <v>20726263715</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1368,9 @@
       <c r="D3" s="2">
         <v>1733695818</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
       <c r="F3" s="2">
         <v>12324427904</v>
       </c>
@@ -1383,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1409,9 @@
       <c r="D4" s="2">
         <v>1733695818</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
       <c r="F4" s="2">
         <v>12324427904</v>
       </c>
@@ -1422,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1435,7 +1450,9 @@
       <c r="D5" s="2">
         <v>4537057975</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2">
         <v>8401835811</v>
       </c>
@@ -1461,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1491,9 @@
       <c r="D6" s="2">
         <v>4537057975</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2">
         <v>8401835811</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1510,8 +1529,12 @@
       <c r="C7" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2">
         <v>3935933826</v>
       </c>
@@ -1537,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1547,8 +1570,12 @@
       <c r="C8" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2">
         <v>3935933826</v>
       </c>
@@ -1574,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +1614,9 @@
       <c r="D9" s="2">
         <v>787548208</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
       <c r="F9" s="2">
         <v>12400825201</v>
       </c>
@@ -1613,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1626,7 +1655,9 @@
       <c r="D10" s="2">
         <v>787548208</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2">
         <v>12400825201</v>
       </c>
@@ -1652,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1696,9 @@
       <c r="D11" s="2">
         <v>787548208</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2">
         <v>12400825201</v>
       </c>
@@ -1676,7 +1709,7 @@
         <v>553057697</v>
       </c>
       <c r="I11" s="2">
-        <v>120009600</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1691,55 +1724,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>120009600</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>921801214</v>
-      </c>
-      <c r="G12" s="2">
-        <v>921801214</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" t="s">
         <v>269</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
       <c r="F13" s="2">
         <v>921801214</v>
       </c>
@@ -1753,72 +1794,80 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>921801214</v>
+      </c>
+      <c r="G14" s="2">
+        <v>921801214</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
         <v>160311244</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>160311244</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>761489970</v>
-      </c>
-      <c r="G15" s="2">
-        <v>761489970</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1839,48 +1888,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>761489970</v>
+      </c>
+      <c r="G16" s="2">
+        <v>761489970</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="2">
-        <v>655664226</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>2923516338</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3391073364</v>
-      </c>
-      <c r="H16" s="2">
-        <v>188107200</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -1891,7 +1942,9 @@
       <c r="D17" s="2">
         <v>655664226</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
       <c r="F17" s="2">
         <v>2923516338</v>
       </c>
@@ -1905,24 +1958,24 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>269</v>
@@ -1930,7 +1983,9 @@
       <c r="D18" s="2">
         <v>655664226</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
       <c r="F18" s="2">
         <v>2923516338</v>
       </c>
@@ -1950,31 +2005,33 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>269</v>
       </c>
       <c r="D19" s="2">
-        <v>52850560</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>655664226</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
       <c r="F19" s="2">
-        <v>2919012347</v>
+        <v>2923516338</v>
       </c>
       <c r="G19" s="2">
-        <v>2783755707</v>
+        <v>3391073364</v>
       </c>
       <c r="H19" s="2">
         <v>188107200</v>
@@ -1986,37 +2043,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>269</v>
       </c>
       <c r="D20" s="2">
-        <v>602813666</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>52850560</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
       <c r="F20" s="2">
-        <v>4503991</v>
+        <v>2919012347</v>
       </c>
       <c r="G20" s="2">
-        <v>607317657</v>
+        <v>2783755707</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>188107200</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -2034,94 +2093,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="2">
+        <v>602813666</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4503991</v>
+      </c>
+      <c r="G21" s="2">
+        <v>607317657</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="2">
         <v>335576938</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <v>335576938</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>1173435348</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1173435348</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
       <c r="F23" s="2">
         <v>1173435348</v>
       </c>
@@ -2135,67 +2204,75 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1173435348</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1173435348</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>8699167320</v>
-      </c>
-      <c r="G24" s="2">
-        <v>8260112809</v>
-      </c>
-      <c r="H24" s="2">
-        <v>439054511</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
       <c r="F25" s="2">
         <v>8699167320</v>
       </c>
@@ -2209,59 +2286,65 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8699167320</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8260112809</v>
+      </c>
+      <c r="H26" s="2">
+        <v>439054511</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>2</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="2">
-        <v>39320000</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <v>39320000</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>269</v>
@@ -2269,9 +2352,15 @@
       <c r="D27" s="2">
         <v>39320000</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
       <c r="H27" s="2">
         <v>39320000</v>
       </c>
@@ -2279,68 +2368,72 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="2">
+        <v>39320000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>39320000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>28452366</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>9829992</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>38282358</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
       <c r="C29" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
       <c r="E29" s="2">
         <v>28452366</v>
       </c>
@@ -2357,29 +2450,31 @@
         <v>38282358</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>269</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
       <c r="E30" s="2">
         <v>28452366</v>
       </c>
@@ -2399,99 +2494,103 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>28452366</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9829992</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>38282358</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="2">
         <v>149686568</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>1301171092</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>1266394439</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <v>184463221</v>
       </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="2">
-        <v>118340962</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>1244597454</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1239636689</v>
-      </c>
-      <c r="H32" s="2">
-        <v>123301727</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>269</v>
@@ -2499,7 +2598,9 @@
       <c r="D33" s="2">
         <v>118340962</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="2">
         <v>1244597454</v>
       </c>
@@ -2516,115 +2617,121 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="2">
+        <v>118340962</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1244597454</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1239636689</v>
+      </c>
+      <c r="H34" s="2">
+        <v>123301727</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="2">
         <v>31345606</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
         <v>56573638</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>26757750</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <v>61161494</v>
       </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>2</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="2">
         <v>21962129</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>43297274</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <v>21515711</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H36" s="2">
         <v>43743692</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="2">
-        <v>9383477</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2">
-        <v>13276364</v>
-      </c>
-      <c r="G36" s="2">
-        <v>5242039</v>
-      </c>
-      <c r="H36" s="2">
-        <v>17417802</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -2642,49 +2749,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9383477</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>13276364</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5242039</v>
+      </c>
+      <c r="H37" s="2">
+        <v>17417802</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" s="2">
-        <v>148099200</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>60000000</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>208099200</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>269</v>
@@ -2692,11 +2803,15 @@
       <c r="D38" s="2">
         <v>148099200</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
       <c r="F38" s="2">
         <v>60000000</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
       <c r="H38" s="2">
         <v>208099200</v>
       </c>
@@ -2704,65 +2819,65 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="2">
+        <v>148099200</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>208099200</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>2</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="2">
-        <v>19175523</v>
-      </c>
-      <c r="E39" s="2">
-        <v>396562352</v>
-      </c>
-      <c r="F39" s="2">
-        <v>10612098991</v>
-      </c>
-      <c r="G39" s="2">
-        <v>10532419973</v>
-      </c>
-      <c r="H39" s="2">
-        <v>19084163</v>
-      </c>
-      <c r="I39" s="2">
-        <v>316791974</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>269</v>
@@ -2786,24 +2901,24 @@
         <v>316791974</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>269</v>
@@ -2812,58 +2927,60 @@
         <v>19175523</v>
       </c>
       <c r="E41" s="2">
-        <v>73248899</v>
+        <v>396562352</v>
       </c>
       <c r="F41" s="2">
-        <v>2708189930</v>
+        <v>10612098991</v>
       </c>
       <c r="G41" s="2">
-        <v>2663562965</v>
+        <v>10532419973</v>
       </c>
       <c r="H41" s="2">
         <v>19084163</v>
       </c>
       <c r="I41" s="2">
+        <v>316791974</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="2">
+        <v>19175523</v>
+      </c>
+      <c r="E42" s="2">
+        <v>73248899</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2708189930</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2663562965</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
         <v>28530574</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" t="s">
-        <v>269</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
-        <v>323313453</v>
-      </c>
-      <c r="F42" s="2">
-        <v>7903909061</v>
-      </c>
-      <c r="G42" s="2">
-        <v>7868857008</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>288261400</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2878,144 +2995,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>19084163</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>323313453</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7903909061</v>
+      </c>
+      <c r="G44" s="2">
+        <v>7868857008</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>288261400</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
-      <c r="C43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="2">
         <v>123407221</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E45" s="2">
         <v>20709338</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F45" s="2">
         <v>3773256827</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G45" s="2">
         <v>4213521023</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H45" s="2">
         <v>123407221</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I45" s="2">
         <v>460973534</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>17355966</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1675829648</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1841441878</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>182968196</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>17355966</v>
-      </c>
-      <c r="F45" s="2">
-        <v>919496380</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1085108610</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>182968196</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
       <c r="C46" t="s">
         <v>269</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
       <c r="E46" s="2">
         <v>17355966</v>
       </c>
       <c r="F46" s="2">
-        <v>919496380</v>
+        <v>1675829648</v>
       </c>
       <c r="G46" s="2">
-        <v>1085108610</v>
+        <v>1841441878</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -3027,44 +3150,48 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
         <v>269</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>17355966</v>
+      </c>
       <c r="F47" s="2">
-        <v>756333268</v>
+        <v>919496380</v>
       </c>
       <c r="G47" s="2">
-        <v>756333268</v>
+        <v>1085108610</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>182968196</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>3</v>
@@ -3073,60 +3200,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
         <v>269</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>17355966</v>
+      </c>
       <c r="F48" s="2">
-        <v>193211740</v>
+        <v>919496380</v>
       </c>
       <c r="G48" s="2">
-        <v>193211740</v>
+        <v>1085108610</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>182968196</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>269</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
       <c r="F49" s="2">
-        <v>193211740</v>
+        <v>756333268</v>
       </c>
       <c r="G49" s="2">
-        <v>193211740</v>
+        <v>756333268</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -3147,24 +3282,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
         <v>269</v>
       </c>
       <c r="D50" s="2">
-        <v>123407221</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>193211740</v>
+      </c>
+      <c r="G50" s="2">
+        <v>193211740</v>
+      </c>
       <c r="H50" s="2">
-        <v>123407221</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -3173,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -3182,31 +3323,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
       <c r="E51" s="2">
-        <v>3353372</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>1891013345</v>
+        <v>193211740</v>
       </c>
       <c r="G51" s="2">
-        <v>2165665311</v>
+        <v>193211740</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>278005338</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3215,32 +3358,36 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
         <v>269</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2">
+        <v>123407221</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
       <c r="F52" s="2">
-        <v>9902094</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>9902094</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
+        <v>123407221</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
@@ -3249,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -3258,60 +3405,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>269</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3353372</v>
+      </c>
       <c r="F53" s="2">
+        <v>1891013345</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2165665311</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>278005338</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
         <v>9902094</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G54" s="2">
         <v>9902094</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>3</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2">
-        <v>3300000</v>
-      </c>
-      <c r="G54" s="2">
-        <v>3300000</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -3332,23 +3487,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
         <v>269</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
       <c r="F55" s="2">
-        <v>3300000</v>
+        <v>9902094</v>
       </c>
       <c r="G55" s="2">
-        <v>3300000</v>
+        <v>9902094</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -3369,103 +3528,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="G56" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="G57" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>118</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>119</v>
       </c>
-      <c r="C56" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2">
-        <v>48145085</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1722398236</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1711485937</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
-        <v>37232786</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
-        <v>48145085</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1722398236</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1711485937</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>37232786</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
       <c r="C58" t="s">
         <v>269</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
       <c r="E58" s="2">
         <v>48145085</v>
       </c>
       <c r="F58" s="2">
-        <v>864807369</v>
+        <v>1722398236</v>
       </c>
       <c r="G58" s="2">
-        <v>853895070</v>
+        <v>1711485937</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -3474,224 +3639,244 @@
         <v>37232786</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>48145085</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1722398236</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1711485937</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>37232786</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>48145085</v>
+      </c>
+      <c r="F60" s="2">
+        <v>864807369</v>
+      </c>
+      <c r="G60" s="2">
+        <v>853895070</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>37232786</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
         <v>3</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>124</v>
       </c>
-      <c r="C59" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2">
+      <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
         <v>857590867</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G61" s="2">
         <v>857590867</v>
       </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
         <v>3</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>126</v>
       </c>
-      <c r="C60" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2">
+      <c r="C62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
         <v>419095788</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F62" s="2">
         <v>17231350</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G62" s="2">
         <v>-234662244</v>
       </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
         <v>167202194</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>128</v>
       </c>
-      <c r="C61" t="s">
-        <v>269</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2">
+      <c r="C63" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
         <v>46657293</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F63" s="2">
         <v>1329024277</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G63" s="2">
         <v>1333892291</v>
       </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
         <v>51525307</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>130</v>
       </c>
-      <c r="C62" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2">
+      <c r="C64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
         <v>12742038</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G64" s="2">
         <v>12742038</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>2</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2">
-        <v>162460981</v>
-      </c>
-      <c r="G63" s="2">
-        <v>162460981</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2">
-        <v>28669583</v>
-      </c>
-      <c r="G64" s="2">
-        <v>28669583</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3712,23 +3897,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
       <c r="F65" s="2">
-        <v>12742039</v>
+        <v>162460981</v>
       </c>
       <c r="G65" s="2">
-        <v>12742039</v>
+        <v>162460981</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3749,95 +3938,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>269</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
       <c r="E66" s="2">
-        <v>46657293</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>1112409636</v>
+        <v>28669583</v>
       </c>
       <c r="G66" s="2">
-        <v>1117277650</v>
+        <v>28669583</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <v>51525307</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>2</v>
       </c>
       <c r="M66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
         <v>269</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
       <c r="E67" s="2">
-        <v>46657293</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>1112409636</v>
+        <v>12742039</v>
       </c>
       <c r="G67" s="2">
-        <v>1117277650</v>
+        <v>12742039</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" s="2">
-        <v>51525307</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
       <c r="E68" s="2">
         <v>46657293</v>
       </c>
@@ -3857,145 +4052,165 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>46657293</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1112409636</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1117277650</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>51525307</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>46657293</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1112409636</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1117277650</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>51525307</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>141</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="C69" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2">
+      <c r="C71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
         <v>13746000000</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
         <v>13746000000</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>143</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>144</v>
       </c>
-      <c r="C70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
+      <c r="C72" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
         <v>13746000000</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
         <v>13746000000</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>2</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" t="s">
-        <v>269</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2">
-        <v>44587513</v>
-      </c>
-      <c r="G71" s="2">
-        <v>44587513</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2">
-        <v>44587513</v>
-      </c>
-      <c r="G72" s="2">
-        <v>44587513</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4010,30 +4225,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>269</v>
       </c>
       <c r="D73" s="2">
-        <v>6290591391</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2">
-        <v>114200846</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>2448028950</v>
+        <v>44587513</v>
       </c>
       <c r="G73" s="2">
-        <v>1526658614</v>
+        <v>44587513</v>
       </c>
       <c r="H73" s="2">
-        <v>7097760881</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
@@ -4051,28 +4266,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
         <v>269</v>
       </c>
       <c r="D74" s="2">
-        <v>6290591391</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
       <c r="F74" s="2">
-        <v>0</v>
+        <v>44587513</v>
       </c>
       <c r="G74" s="2">
-        <v>114200846</v>
+        <v>44587513</v>
       </c>
       <c r="H74" s="2">
-        <v>6176390545</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
@@ -4090,17 +4307,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>6290591391</v>
+      </c>
       <c r="E75" s="2">
         <v>114200846</v>
       </c>
@@ -4108,80 +4327,96 @@
         <v>2448028950</v>
       </c>
       <c r="G75" s="2">
+        <v>1526658614</v>
+      </c>
+      <c r="H75" s="2">
+        <v>7097760881</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="2">
+        <v>6290591391</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>114200846</v>
+      </c>
+      <c r="H76" s="2">
+        <v>6176390545</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>114200846</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2448028950</v>
+      </c>
+      <c r="G77" s="2">
         <v>1412457768</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H77" s="2">
         <v>921370336</v>
       </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>2</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" t="s">
-        <v>270</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2">
-        <v>0</v>
-      </c>
-      <c r="G76" s="2">
-        <v>11320490154</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2">
-        <v>0</v>
-      </c>
-      <c r="G77" s="2">
-        <v>9761488800</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
       <c r="J77">
         <v>0</v>
       </c>
@@ -4195,12 +4430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
         <v>270</v>
@@ -4211,29 +4446,29 @@
         <v>0</v>
       </c>
       <c r="G78" s="2">
-        <v>238844934</v>
+        <v>11320490154</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
         <v>270</v>
@@ -4244,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="2">
-        <v>1320156420</v>
+        <v>9761488800</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -4261,12 +4496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>270</v>
@@ -4277,29 +4512,29 @@
         <v>0</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>238844934</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
         <v>270</v>
@@ -4310,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="2">
-        <v>907591</v>
+        <v>1320156420</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -4327,12 +4562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
         <v>270</v>
@@ -4343,29 +4578,29 @@
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>199741089</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
         <v>270</v>
@@ -4376,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>42738013</v>
+        <v>907591</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -4393,12 +4628,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
         <v>270</v>
@@ -4409,29 +4644,29 @@
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>199741089</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
         <v>270</v>
@@ -4439,10 +4674,10 @@
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
-        <v>8209584118</v>
+        <v>0</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
+        <v>42738013</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4459,12 +4694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
         <v>270</v>
@@ -4472,7 +4707,7 @@
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
-        <v>1209043426</v>
+        <v>0</v>
       </c>
       <c r="G86" s="2">
         <v>0</v>
@@ -4480,24 +4715,24 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
         <v>270</v>
@@ -4505,7 +4740,7 @@
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
-        <v>0</v>
+        <v>8209584118</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
@@ -4513,24 +4748,24 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
         <v>270</v>
@@ -4538,7 +4773,7 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2">
-        <v>62044912</v>
+        <v>1209043426</v>
       </c>
       <c r="G88" s="2">
         <v>0</v>
@@ -4558,12 +4793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
         <v>270</v>
@@ -4591,12 +4826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
         <v>270</v>
@@ -4604,7 +4839,7 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
-        <v>0</v>
+        <v>62044912</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
@@ -4615,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>2</v>
@@ -4624,12 +4859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
         <v>270</v>
@@ -4637,7 +4872,7 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2">
-        <v>433406484</v>
+        <v>0</v>
       </c>
       <c r="G91" s="2">
         <v>0</v>
@@ -4645,24 +4880,24 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
         <v>270</v>
@@ -4670,7 +4905,7 @@
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2">
-        <v>-725841475</v>
+        <v>0</v>
       </c>
       <c r="G92" s="2">
         <v>0</v>
@@ -4681,21 +4916,21 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
         <v>270</v>
@@ -4703,7 +4938,7 @@
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2">
-        <v>78329673</v>
+        <v>433406484</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
@@ -4723,12 +4958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
         <v>270</v>
@@ -4736,7 +4971,7 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2">
-        <v>362570806</v>
+        <v>-725841475</v>
       </c>
       <c r="G94" s="2">
         <v>0</v>
@@ -4756,12 +4991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
         <v>270</v>
@@ -4769,7 +5004,7 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2">
-        <v>815277317</v>
+        <v>78329673</v>
       </c>
       <c r="G95" s="2">
         <v>0</v>
@@ -4789,12 +5024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
         <v>270</v>
@@ -4802,7 +5037,7 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2">
-        <v>61558431</v>
+        <v>362570806</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -4822,12 +5057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
         <v>270</v>
@@ -4835,7 +5070,7 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2">
-        <v>106263049</v>
+        <v>815277317</v>
       </c>
       <c r="G97" s="2">
         <v>0</v>
@@ -4849,18 +5084,18 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
         <v>270</v>
@@ -4868,7 +5103,7 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2">
-        <v>0</v>
+        <v>61558431</v>
       </c>
       <c r="G98" s="2">
         <v>0</v>
@@ -4879,21 +5114,21 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
         <v>270</v>
@@ -4901,7 +5136,7 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2">
-        <v>4914996</v>
+        <v>106263049</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
@@ -4915,18 +5150,18 @@
         <v>1</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
         <v>270</v>
@@ -4954,12 +5189,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
         <v>270</v>
@@ -4967,7 +5202,7 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2">
-        <v>165928141</v>
+        <v>4914996</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
@@ -4987,12 +5222,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
         <v>270</v>
@@ -5000,7 +5235,7 @@
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2">
-        <v>136205867</v>
+        <v>0</v>
       </c>
       <c r="G102" s="2">
         <v>0</v>
@@ -5011,21 +5246,21 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C103" t="s">
         <v>270</v>
@@ -5033,7 +5268,7 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2">
-        <v>200642454</v>
+        <v>165928141</v>
       </c>
       <c r="G103" s="2">
         <v>0</v>
@@ -5053,12 +5288,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C104" t="s">
         <v>270</v>
@@ -5066,7 +5301,7 @@
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2">
-        <v>5546036</v>
+        <v>136205867</v>
       </c>
       <c r="G104" s="2">
         <v>0</v>
@@ -5086,12 +5321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
         <v>270</v>
@@ -5099,7 +5334,7 @@
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2">
-        <v>7740016</v>
+        <v>200642454</v>
       </c>
       <c r="G105" s="2">
         <v>0</v>
@@ -5119,12 +5354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C106" t="s">
         <v>270</v>
@@ -5132,7 +5367,7 @@
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2">
-        <v>126194631</v>
+        <v>5546036</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -5152,12 +5387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
         <v>270</v>
@@ -5165,7 +5400,7 @@
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2">
-        <v>20000</v>
+        <v>7740016</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -5185,12 +5420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
         <v>270</v>
@@ -5198,7 +5433,7 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2">
-        <v>0</v>
+        <v>126194631</v>
       </c>
       <c r="G108" s="2">
         <v>0</v>
@@ -5209,21 +5444,21 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
         <v>270</v>
@@ -5231,7 +5466,7 @@
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2">
-        <v>25479000</v>
+        <v>20000</v>
       </c>
       <c r="G109" s="2">
         <v>0</v>
@@ -5251,12 +5486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
         <v>270</v>
@@ -5264,7 +5499,7 @@
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2">
-        <v>54617294</v>
+        <v>0</v>
       </c>
       <c r="G110" s="2">
         <v>0</v>
@@ -5275,21 +5510,21 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B111" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
         <v>270</v>
@@ -5297,7 +5532,7 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2">
-        <v>64696904</v>
+        <v>25479000</v>
       </c>
       <c r="G111" s="2">
         <v>0</v>
@@ -5317,12 +5552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="C112" t="s">
         <v>270</v>
@@ -5330,7 +5565,7 @@
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2">
-        <v>0</v>
+        <v>54617294</v>
       </c>
       <c r="G112" s="2">
         <v>0</v>
@@ -5338,24 +5573,24 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
         <v>270</v>
@@ -5363,7 +5598,7 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2">
-        <v>0</v>
+        <v>64696904</v>
       </c>
       <c r="G113" s="2">
         <v>0</v>
@@ -5374,21 +5609,21 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
         <v>270</v>
@@ -5396,7 +5631,7 @@
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2">
-        <v>-725841475</v>
+        <v>0</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
@@ -5404,24 +5639,24 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
         <v>270</v>
@@ -5429,7 +5664,7 @@
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2">
-        <v>362570806</v>
+        <v>0</v>
       </c>
       <c r="G115" s="2">
         <v>0</v>
@@ -5440,21 +5675,21 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
         <v>270</v>
@@ -5462,7 +5697,7 @@
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2">
-        <v>815277317</v>
+        <v>-725841475</v>
       </c>
       <c r="G116" s="2">
         <v>0</v>
@@ -5482,12 +5717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
         <v>270</v>
@@ -5495,7 +5730,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2">
-        <v>61558431</v>
+        <v>362570806</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -5515,12 +5750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
         <v>270</v>
@@ -5528,7 +5763,7 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2">
-        <v>18481352</v>
+        <v>815277317</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -5542,18 +5777,18 @@
         <v>1</v>
       </c>
       <c r="L118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
         <v>270</v>
@@ -5561,7 +5796,7 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2">
-        <v>0</v>
+        <v>61558431</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -5572,21 +5807,21 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>270</v>
@@ -5594,7 +5829,7 @@
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
-        <v>4914996</v>
+        <v>18481352</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -5608,18 +5843,18 @@
         <v>1</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
         <v>270</v>
@@ -5627,7 +5862,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -5638,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>2</v>
@@ -5647,12 +5882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
         <v>270</v>
@@ -5660,7 +5895,7 @@
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2">
-        <v>0</v>
+        <v>4914996</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -5671,21 +5906,21 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
         <v>270</v>
@@ -5693,7 +5928,7 @@
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2">
-        <v>66880810</v>
+        <v>3000000</v>
       </c>
       <c r="G123" s="2">
         <v>0</v>
@@ -5707,18 +5942,18 @@
         <v>1</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="C124" t="s">
         <v>270</v>
@@ -5726,7 +5961,7 @@
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2">
-        <v>223164508</v>
+        <v>0</v>
       </c>
       <c r="G124" s="2">
         <v>0</v>
@@ -5737,21 +5972,21 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C125" t="s">
         <v>270</v>
@@ -5759,7 +5994,7 @@
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2">
-        <v>22680000</v>
+        <v>66880810</v>
       </c>
       <c r="G125" s="2">
         <v>0</v>
@@ -5779,12 +6014,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C126" t="s">
         <v>270</v>
@@ -5792,7 +6027,7 @@
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2">
-        <v>29030767</v>
+        <v>223164508</v>
       </c>
       <c r="G126" s="2">
         <v>0</v>
@@ -5812,12 +6047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C127" t="s">
         <v>270</v>
@@ -5825,7 +6060,7 @@
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2">
-        <v>32643059</v>
+        <v>22680000</v>
       </c>
       <c r="G127" s="2">
         <v>0</v>
@@ -5845,12 +6080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
         <v>270</v>
@@ -5858,7 +6093,7 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2">
-        <v>79257186</v>
+        <v>29030767</v>
       </c>
       <c r="G128" s="2">
         <v>0</v>
@@ -5878,12 +6113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
         <v>270</v>
@@ -5891,7 +6126,7 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2">
-        <v>61450000</v>
+        <v>32643059</v>
       </c>
       <c r="G129" s="2">
         <v>0</v>
@@ -5905,18 +6140,18 @@
         <v>1</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C130" t="s">
         <v>270</v>
@@ -5924,32 +6159,32 @@
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2">
-        <v>0</v>
+        <v>79257186</v>
       </c>
       <c r="G130" s="2">
-        <v>20915431</v>
+        <v>0</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
         <v>270</v>
@@ -5957,10 +6192,10 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2">
-        <v>0</v>
+        <v>61450000</v>
       </c>
       <c r="G131" s="2">
-        <v>2690422</v>
+        <v>0</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -5977,9 +6212,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
         <v>262</v>
@@ -5993,29 +6228,29 @@
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <v>18225009</v>
+        <v>20915431</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="C133" t="s">
         <v>270</v>
@@ -6023,32 +6258,32 @@
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2">
-        <v>46872777</v>
+        <v>0</v>
       </c>
       <c r="G133" s="2">
-        <v>0</v>
+        <v>2690422</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="C134" t="s">
         <v>270</v>
@@ -6056,10 +6291,10 @@
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2">
-        <v>46872777</v>
+        <v>0</v>
       </c>
       <c r="G134" s="2">
-        <v>0</v>
+        <v>18225009</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -6076,23 +6311,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>173</v>
+      </c>
+      <c r="C135" t="s">
+        <v>270</v>
+      </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
+      <c r="F135" s="2">
+        <v>46872777</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135"/>
-      <c r="M135"/>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2">
+        <v>46872777</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M134" xr:uid="{664DE13B-5BAE-4C9A-BF44-B141580213B2}"/>
+  <autoFilter ref="A1:M136" xr:uid="{664DE13B-5BAE-4C9A-BF44-B141580213B2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/TB_2025.xlsx
+++ b/data/TB_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XA XUI - CVN\Documents\GitHub\Planning_Agent_NDD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E904F9-DC4F-495E-8A18-D2FCB3037F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0534577-0767-413E-9D34-433C3E6B1587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
   </bookViews>
@@ -41,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="275">
   <si>
-    <t>Account No</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>Trả trước cho người bán</t>
+  </si>
+  <si>
+    <t>account_id</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1255,10 @@
   <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,54 +1275,54 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2">
         <v>6270753793</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2">
         <v>1733695818</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2">
         <v>1733695818</v>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="2">
         <v>4537057975</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2">
         <v>4537057975</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="2">
         <v>787548208</v>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="2">
         <v>787548208</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="2">
         <v>787548208</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="s">
         <v>271</v>
       </c>
-      <c r="B12" t="s">
-        <v>272</v>
-      </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="2">
         <v>655664226</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="2">
         <v>655664226</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2">
         <v>655664226</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="2">
         <v>52850560</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="2">
         <v>602813666</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="2">
         <v>335576938</v>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2">
         <v>39320000</v>
@@ -2382,13 +2382,13 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="2">
         <v>39320000</v>
@@ -2423,13 +2423,13 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -2464,13 +2464,13 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -2505,13 +2505,13 @@
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -2546,13 +2546,13 @@
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="2">
         <v>149686568</v>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="2">
         <v>118340962</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="2">
         <v>118340962</v>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D35" s="2">
         <v>31345606</v>
@@ -2710,13 +2710,13 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" s="2">
         <v>21962129</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="2">
         <v>9383477</v>
@@ -2792,13 +2792,13 @@
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D38" s="2">
         <v>148099200</v>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
       <c r="C39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" s="2">
         <v>148099200</v>
@@ -2874,13 +2874,13 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" s="2">
         <v>19175523</v>
@@ -2915,13 +2915,13 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D41" s="2">
         <v>19175523</v>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
         <v>88</v>
       </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
       <c r="C42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D42" s="2">
         <v>19175523</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" t="s">
         <v>273</v>
       </c>
-      <c r="B43" t="s">
-        <v>274</v>
-      </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -3038,13 +3038,13 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
       <c r="C44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" s="2">
         <v>123407221</v>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
         <v>94</v>
       </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
       <c r="C46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
         <v>96</v>
       </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -3202,13 +3202,13 @@
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
       <c r="C48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
       <c r="C50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -3366,13 +3366,13 @@
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
         <v>106</v>
       </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
       <c r="C52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D52" s="2">
         <v>123407221</v>
@@ -3407,13 +3407,13 @@
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
       <c r="C53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
@@ -3448,13 +3448,13 @@
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
         <v>110</v>
       </c>
-      <c r="B54" t="s">
-        <v>111</v>
-      </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
         <v>112</v>
       </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
       <c r="C55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -3530,13 +3530,13 @@
     </row>
     <row r="56" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
         <v>114</v>
       </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -3571,13 +3571,13 @@
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
         <v>116</v>
       </c>
-      <c r="B57" t="s">
-        <v>117</v>
-      </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
@@ -3612,13 +3612,13 @@
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
         <v>118</v>
       </c>
-      <c r="B58" t="s">
-        <v>119</v>
-      </c>
       <c r="C58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -3653,13 +3653,13 @@
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="60" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -3735,13 +3735,13 @@
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
       <c r="C61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -3776,13 +3776,13 @@
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
       <c r="C62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -3817,13 +3817,13 @@
     </row>
     <row r="63" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="64" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -3899,13 +3899,13 @@
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -3940,13 +3940,13 @@
     </row>
     <row r="66" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
       <c r="C66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="67" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -4022,13 +4022,13 @@
     </row>
     <row r="68" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -4063,13 +4063,13 @@
     </row>
     <row r="69" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
       <c r="C69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -4104,13 +4104,13 @@
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -4145,13 +4145,13 @@
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="B71" t="s">
-        <v>142</v>
-      </c>
       <c r="C71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D71" s="2">
         <v>0</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="B72" t="s">
-        <v>144</v>
-      </c>
       <c r="C72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -4227,13 +4227,13 @@
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
         <v>145</v>
       </c>
-      <c r="B73" t="s">
-        <v>146</v>
-      </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -4268,13 +4268,13 @@
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
         <v>147</v>
       </c>
-      <c r="B74" t="s">
-        <v>148</v>
-      </c>
       <c r="C74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -4309,13 +4309,13 @@
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
         <v>149</v>
       </c>
-      <c r="B75" t="s">
-        <v>150</v>
-      </c>
       <c r="C75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" s="2">
         <v>6290591391</v>
@@ -4350,13 +4350,13 @@
     </row>
     <row r="76" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
         <v>151</v>
       </c>
-      <c r="B76" t="s">
-        <v>152</v>
-      </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D76" s="2">
         <v>6290591391</v>
@@ -4391,13 +4391,13 @@
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
         <v>153</v>
       </c>
-      <c r="B77" t="s">
-        <v>154</v>
-      </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -4432,13 +4432,13 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
         <v>155</v>
       </c>
-      <c r="B78" t="s">
-        <v>156</v>
-      </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4465,13 +4465,13 @@
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
         <v>157</v>
       </c>
-      <c r="B79" t="s">
-        <v>158</v>
-      </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -4498,13 +4498,13 @@
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
         <v>159</v>
       </c>
-      <c r="B80" t="s">
-        <v>160</v>
-      </c>
       <c r="C80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4531,13 +4531,13 @@
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
         <v>161</v>
       </c>
-      <c r="B81" t="s">
-        <v>162</v>
-      </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -4564,13 +4564,13 @@
     </row>
     <row r="82" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
         <v>163</v>
       </c>
-      <c r="B82" t="s">
-        <v>164</v>
-      </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -4597,13 +4597,13 @@
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
         <v>165</v>
       </c>
-      <c r="B83" t="s">
-        <v>166</v>
-      </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="84" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
         <v>167</v>
       </c>
-      <c r="B84" t="s">
-        <v>168</v>
-      </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -4663,13 +4663,13 @@
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
         <v>169</v>
       </c>
-      <c r="B85" t="s">
-        <v>170</v>
-      </c>
       <c r="C85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -4696,13 +4696,13 @@
     </row>
     <row r="86" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
         <v>176</v>
       </c>
-      <c r="B86" t="s">
-        <v>177</v>
-      </c>
       <c r="C86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -4729,13 +4729,13 @@
     </row>
     <row r="87" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" t="s">
         <v>178</v>
       </c>
-      <c r="B87" t="s">
-        <v>179</v>
-      </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -4762,13 +4762,13 @@
     </row>
     <row r="88" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
         <v>180</v>
       </c>
-      <c r="B88" t="s">
-        <v>181</v>
-      </c>
       <c r="C88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -4795,13 +4795,13 @@
     </row>
     <row r="89" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" t="s">
         <v>182</v>
       </c>
-      <c r="B89" t="s">
-        <v>183</v>
-      </c>
       <c r="C89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -4828,13 +4828,13 @@
     </row>
     <row r="90" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
         <v>184</v>
       </c>
-      <c r="B90" t="s">
-        <v>185</v>
-      </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4861,13 +4861,13 @@
     </row>
     <row r="91" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
         <v>186</v>
       </c>
-      <c r="B91" t="s">
-        <v>187</v>
-      </c>
       <c r="C91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4894,13 +4894,13 @@
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
         <v>188</v>
       </c>
-      <c r="B92" t="s">
-        <v>189</v>
-      </c>
       <c r="C92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -4927,13 +4927,13 @@
     </row>
     <row r="93" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" t="s">
         <v>190</v>
       </c>
-      <c r="B93" t="s">
-        <v>191</v>
-      </c>
       <c r="C93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -4960,13 +4960,13 @@
     </row>
     <row r="94" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" t="s">
         <v>192</v>
       </c>
-      <c r="B94" t="s">
-        <v>193</v>
-      </c>
       <c r="C94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -4993,13 +4993,13 @@
     </row>
     <row r="95" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
         <v>194</v>
       </c>
-      <c r="B95" t="s">
-        <v>195</v>
-      </c>
       <c r="C95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="96" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
         <v>196</v>
       </c>
-      <c r="B96" t="s">
-        <v>197</v>
-      </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5059,13 +5059,13 @@
     </row>
     <row r="97" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
         <v>198</v>
       </c>
-      <c r="B97" t="s">
-        <v>199</v>
-      </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5092,13 +5092,13 @@
     </row>
     <row r="98" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
         <v>200</v>
       </c>
-      <c r="B98" t="s">
-        <v>201</v>
-      </c>
       <c r="C98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5125,13 +5125,13 @@
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
         <v>202</v>
       </c>
-      <c r="B99" t="s">
-        <v>203</v>
-      </c>
       <c r="C99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5158,13 +5158,13 @@
     </row>
     <row r="100" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
         <v>204</v>
       </c>
-      <c r="B100" t="s">
-        <v>205</v>
-      </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5191,13 +5191,13 @@
     </row>
     <row r="101" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
         <v>206</v>
       </c>
-      <c r="B101" t="s">
-        <v>207</v>
-      </c>
       <c r="C101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5224,13 +5224,13 @@
     </row>
     <row r="102" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5257,13 +5257,13 @@
     </row>
     <row r="103" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
         <v>209</v>
       </c>
-      <c r="B103" t="s">
-        <v>210</v>
-      </c>
       <c r="C103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5290,13 +5290,13 @@
     </row>
     <row r="104" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
         <v>211</v>
       </c>
-      <c r="B104" t="s">
-        <v>212</v>
-      </c>
       <c r="C104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5323,13 +5323,13 @@
     </row>
     <row r="105" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
         <v>213</v>
       </c>
-      <c r="B105" t="s">
-        <v>214</v>
-      </c>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5356,13 +5356,13 @@
     </row>
     <row r="106" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s">
         <v>215</v>
       </c>
-      <c r="B106" t="s">
-        <v>216</v>
-      </c>
       <c r="C106" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5389,13 +5389,13 @@
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s">
         <v>217</v>
       </c>
-      <c r="B107" t="s">
-        <v>218</v>
-      </c>
       <c r="C107" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5422,13 +5422,13 @@
     </row>
     <row r="108" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
         <v>219</v>
       </c>
-      <c r="B108" t="s">
-        <v>220</v>
-      </c>
       <c r="C108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5455,13 +5455,13 @@
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" t="s">
         <v>221</v>
       </c>
-      <c r="B109" t="s">
-        <v>222</v>
-      </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="110" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5521,13 +5521,13 @@
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5554,13 +5554,13 @@
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5587,13 +5587,13 @@
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
       <c r="C113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5620,13 +5620,13 @@
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
         <v>228</v>
       </c>
-      <c r="B114" t="s">
-        <v>229</v>
-      </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5653,13 +5653,13 @@
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
         <v>230</v>
       </c>
-      <c r="B115" t="s">
-        <v>231</v>
-      </c>
       <c r="C115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5686,13 +5686,13 @@
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
         <v>232</v>
       </c>
-      <c r="B116" t="s">
-        <v>233</v>
-      </c>
       <c r="C116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5719,13 +5719,13 @@
     </row>
     <row r="117" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
         <v>234</v>
       </c>
-      <c r="B117" t="s">
-        <v>235</v>
-      </c>
       <c r="C117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5752,13 +5752,13 @@
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
         <v>236</v>
       </c>
-      <c r="B118" t="s">
-        <v>237</v>
-      </c>
       <c r="C118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5785,13 +5785,13 @@
     </row>
     <row r="119" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
         <v>238</v>
       </c>
-      <c r="B119" t="s">
-        <v>239</v>
-      </c>
       <c r="C119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5818,13 +5818,13 @@
     </row>
     <row r="120" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
         <v>240</v>
       </c>
-      <c r="B120" t="s">
-        <v>241</v>
-      </c>
       <c r="C120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5851,13 +5851,13 @@
     </row>
     <row r="121" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5884,13 +5884,13 @@
     </row>
     <row r="122" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
         <v>243</v>
       </c>
-      <c r="B122" t="s">
-        <v>244</v>
-      </c>
       <c r="C122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5917,13 +5917,13 @@
     </row>
     <row r="123" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
         <v>245</v>
       </c>
-      <c r="B123" t="s">
-        <v>246</v>
-      </c>
       <c r="C123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="124" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5983,13 +5983,13 @@
     </row>
     <row r="125" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
         <v>248</v>
       </c>
-      <c r="B125" t="s">
-        <v>249</v>
-      </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6016,13 +6016,13 @@
     </row>
     <row r="126" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" t="s">
         <v>250</v>
       </c>
-      <c r="B126" t="s">
-        <v>251</v>
-      </c>
       <c r="C126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6049,13 +6049,13 @@
     </row>
     <row r="127" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
         <v>252</v>
       </c>
-      <c r="B127" t="s">
-        <v>253</v>
-      </c>
       <c r="C127" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6082,13 +6082,13 @@
     </row>
     <row r="128" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" t="s">
         <v>254</v>
       </c>
-      <c r="B128" t="s">
-        <v>255</v>
-      </c>
       <c r="C128" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6115,13 +6115,13 @@
     </row>
     <row r="129" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" t="s">
         <v>256</v>
       </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6148,13 +6148,13 @@
     </row>
     <row r="130" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" t="s">
         <v>258</v>
       </c>
-      <c r="B130" t="s">
-        <v>259</v>
-      </c>
       <c r="C130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6181,13 +6181,13 @@
     </row>
     <row r="131" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6214,13 +6214,13 @@
     </row>
     <row r="132" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
         <v>261</v>
       </c>
-      <c r="B132" t="s">
-        <v>262</v>
-      </c>
       <c r="C132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6247,13 +6247,13 @@
     </row>
     <row r="133" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
         <v>263</v>
       </c>
-      <c r="B133" t="s">
-        <v>264</v>
-      </c>
       <c r="C133" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6280,13 +6280,13 @@
     </row>
     <row r="134" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C134" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6313,13 +6313,13 @@
     </row>
     <row r="135" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6346,13 +6346,13 @@
     </row>
     <row r="136" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>

--- a/data/TB_2025.xlsx
+++ b/data/TB_2025.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XA XUI - CVN\Documents\GitHub\Planning_Agent_NDD\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52ebbb93f357813a/10_Works/GitHub/Planning_Agent_NDD/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0534577-0767-413E-9D34-433C3E6B1587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B0534577-0767-413E-9D34-433C3E6B1587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA066B48-20D6-4E1A-9EF6-889D408C3F26}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5925778F-D371-4578-87A7-1EA07C6739EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="271">
   <si>
     <t>Description</t>
   </si>
@@ -62,18 +62,6 @@
     <t>Closing Cr</t>
   </si>
   <si>
-    <t>Account to FS</t>
-  </si>
-  <si>
-    <t>SubAccount</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Số dư c.nợ</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
@@ -851,19 +839,19 @@
     <t>PL</t>
   </si>
   <si>
-    <t>13111x</t>
-  </si>
-  <si>
     <t>Khách hàng trả tiền trước</t>
   </si>
   <si>
-    <t>33111x</t>
-  </si>
-  <si>
     <t>Trả trước cho người bán</t>
   </si>
   <si>
     <t>account_id</t>
+  </si>
+  <si>
+    <t>1311x</t>
+  </si>
+  <si>
+    <t>3311x</t>
   </si>
 </sst>
 </file>
@@ -1252,36 +1240,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664DE13B-5BAE-4C9A-BF44-B141580213B2}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1301,28 +1289,16 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2">
         <v>6270753793</v>
@@ -1342,28 +1318,16 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D3" s="2">
         <v>1733695818</v>
@@ -1383,28 +1347,16 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D4" s="2">
         <v>1733695818</v>
@@ -1424,28 +1376,16 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2">
         <v>4537057975</v>
@@ -1465,28 +1405,16 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D6" s="2">
         <v>4537057975</v>
@@ -1506,28 +1434,16 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1547,28 +1463,16 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1588,28 +1492,16 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2">
         <v>787548208</v>
@@ -1629,28 +1521,16 @@
       <c r="I9" s="2">
         <v>120009600</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2">
         <v>787548208</v>
@@ -1670,28 +1550,16 @@
       <c r="I10" s="2">
         <v>120009600</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D11" s="2">
         <v>787548208</v>
@@ -1711,28 +1579,16 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1752,28 +1608,16 @@
       <c r="I12" s="2">
         <v>120009600</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1793,28 +1637,16 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1834,28 +1666,16 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1875,28 +1695,16 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1916,28 +1724,16 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D17" s="2">
         <v>655664226</v>
@@ -1957,28 +1753,16 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D18" s="2">
         <v>655664226</v>
@@ -1998,28 +1782,16 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D19" s="2">
         <v>655664226</v>
@@ -2039,28 +1811,16 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D20" s="2">
         <v>52850560</v>
@@ -2080,28 +1840,16 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2">
         <v>602813666</v>
@@ -2121,28 +1869,16 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D22" s="2">
         <v>335576938</v>
@@ -2162,28 +1898,16 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2203,28 +1927,16 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2244,28 +1956,16 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -2285,28 +1985,16 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2326,28 +2014,16 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D27" s="2">
         <v>39320000</v>
@@ -2367,28 +2043,16 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D28" s="2">
         <v>39320000</v>
@@ -2408,28 +2072,16 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -2449,28 +2101,16 @@
       <c r="I29" s="2">
         <v>38282358</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -2490,28 +2130,16 @@
       <c r="I30" s="2">
         <v>38282358</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -2531,28 +2159,16 @@
       <c r="I31" s="2">
         <v>38282358</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D32" s="2">
         <v>149686568</v>
@@ -2572,28 +2188,16 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D33" s="2">
         <v>118340962</v>
@@ -2613,28 +2217,16 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D34" s="2">
         <v>118340962</v>
@@ -2654,28 +2246,16 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D35" s="2">
         <v>31345606</v>
@@ -2695,28 +2275,16 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D36" s="2">
         <v>21962129</v>
@@ -2736,28 +2304,16 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D37" s="2">
         <v>9383477</v>
@@ -2777,28 +2333,16 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D38" s="2">
         <v>148099200</v>
@@ -2818,28 +2362,16 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D39" s="2">
         <v>148099200</v>
@@ -2859,28 +2391,16 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D40" s="2">
         <v>19175523</v>
@@ -2900,28 +2420,16 @@
       <c r="I40" s="2">
         <v>316791974</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D41" s="2">
         <v>19175523</v>
@@ -2941,28 +2449,16 @@
       <c r="I41" s="2">
         <v>316791974</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>2</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D42" s="2">
         <v>19175523</v>
@@ -2982,28 +2478,16 @@
       <c r="I42" s="2">
         <v>28530574</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -3023,28 +2507,16 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -3064,28 +2536,16 @@
       <c r="I44" s="2">
         <v>288261400</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2">
         <v>123407221</v>
@@ -3105,28 +2565,16 @@
       <c r="I45" s="2">
         <v>460973534</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -3146,28 +2594,16 @@
       <c r="I46" s="2">
         <v>182968196</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -3187,28 +2623,16 @@
       <c r="I47" s="2">
         <v>182968196</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -3228,28 +2652,16 @@
       <c r="I48" s="2">
         <v>182968196</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -3269,28 +2681,16 @@
       <c r="I49" s="2">
         <v>0</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -3310,28 +2710,16 @@
       <c r="I50" s="2">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -3351,28 +2739,16 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D52" s="2">
         <v>123407221</v>
@@ -3392,28 +2768,16 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
@@ -3433,28 +2797,16 @@
       <c r="I53" s="2">
         <v>278005338</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -3474,28 +2826,16 @@
       <c r="I54" s="2">
         <v>0</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>2</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -3515,28 +2855,16 @@
       <c r="I55" s="2">
         <v>0</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -3556,28 +2884,16 @@
       <c r="I56" s="2">
         <v>0</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
@@ -3597,28 +2913,16 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -3638,28 +2942,16 @@
       <c r="I58" s="2">
         <v>37232786</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -3679,28 +2971,16 @@
       <c r="I59" s="2">
         <v>37232786</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -3720,28 +3000,16 @@
       <c r="I60" s="2">
         <v>37232786</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -3761,28 +3029,16 @@
       <c r="I61" s="2">
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -3802,28 +3058,16 @@
       <c r="I62" s="2">
         <v>167202194</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -3843,28 +3087,16 @@
       <c r="I63" s="2">
         <v>51525307</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -3884,28 +3116,16 @@
       <c r="I64" s="2">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>2</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -3925,28 +3145,16 @@
       <c r="I65" s="2">
         <v>0</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>2</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -3966,28 +3174,16 @@
       <c r="I66" s="2">
         <v>0</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>2</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D67" s="2">
         <v>0</v>
@@ -4007,28 +3203,16 @@
       <c r="I67" s="2">
         <v>0</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -4048,28 +3232,16 @@
       <c r="I68" s="2">
         <v>51525307</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>2</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D69" s="2">
         <v>0</v>
@@ -4089,28 +3261,16 @@
       <c r="I69" s="2">
         <v>51525307</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>3</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -4130,28 +3290,16 @@
       <c r="I70" s="2">
         <v>51525307</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>4</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D71" s="2">
         <v>0</v>
@@ -4171,28 +3319,16 @@
       <c r="I71" s="2">
         <v>13746000000</v>
       </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -4212,28 +3348,16 @@
       <c r="I72" s="2">
         <v>13746000000</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>2</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -4253,28 +3377,16 @@
       <c r="I73" s="2">
         <v>0</v>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -4294,28 +3406,16 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D75" s="2">
         <v>6290591391</v>
@@ -4335,28 +3435,16 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" s="2">
         <v>6290591391</v>
@@ -4376,28 +3464,16 @@
       <c r="I76" s="2">
         <v>0</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -4417,28 +3493,16 @@
       <c r="I77" s="2">
         <v>0</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4450,28 +3514,16 @@
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -4483,28 +3535,16 @@
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>2</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4516,28 +3556,16 @@
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>2</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -4549,28 +3577,16 @@
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>2</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -4582,28 +3598,16 @@
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4615,28 +3619,16 @@
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>2</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -4648,28 +3640,16 @@
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84">
-        <v>2</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -4681,28 +3661,16 @@
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>2</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -4714,28 +3682,16 @@
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -4747,28 +3703,16 @@
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>2</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -4780,28 +3724,16 @@
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>2</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -4813,28 +3745,16 @@
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4846,28 +3766,16 @@
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>2</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4879,28 +3787,16 @@
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -4912,28 +3808,16 @@
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>2</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -4945,28 +3829,16 @@
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>3</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -4978,28 +3850,16 @@
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>3</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5011,28 +3871,16 @@
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>3</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5044,28 +3892,16 @@
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>3</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -5077,28 +3913,16 @@
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>3</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5110,28 +3934,16 @@
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5143,28 +3955,16 @@
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <v>2</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5176,28 +3976,16 @@
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>2</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -5209,28 +3997,16 @@
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101">
-        <v>3</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5242,28 +4018,16 @@
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>2</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5275,28 +4039,16 @@
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103">
-        <v>3</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -5308,28 +4060,16 @@
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104">
-        <v>3</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C105" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5341,28 +4081,16 @@
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105">
-        <v>3</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C106" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -5374,28 +4102,16 @@
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106">
-        <v>3</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5407,28 +4123,16 @@
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107">
-        <v>3</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C108" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -5440,28 +4144,16 @@
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="L108">
-        <v>3</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5473,28 +4165,16 @@
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109">
-        <v>3</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C110" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5506,28 +4186,16 @@
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>2</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5539,28 +4207,16 @@
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111">
-        <v>3</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C112" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5572,28 +4228,16 @@
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112">
-        <v>3</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5605,28 +4249,16 @@
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113">
-        <v>3</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5638,28 +4270,16 @@
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5671,28 +4291,16 @@
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>2</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C116" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5704,28 +4312,16 @@
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116">
-        <v>3</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C117" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5737,28 +4333,16 @@
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117">
-        <v>3</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5770,28 +4354,16 @@
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5803,28 +4375,16 @@
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119">
-        <v>3</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5836,28 +4396,16 @@
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120">
-        <v>2</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5869,28 +4417,16 @@
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>2</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C122" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5902,28 +4438,16 @@
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-      <c r="L122">
-        <v>3</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5935,28 +4459,16 @@
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123">
-        <v>2</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5968,28 +4480,16 @@
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>2</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C125" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -6001,28 +4501,16 @@
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125">
-        <v>3</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C126" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -6034,28 +4522,16 @@
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126">
-        <v>3</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -6067,28 +4543,16 @@
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127">
-        <v>3</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -6100,28 +4564,16 @@
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C129" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -6133,28 +4585,16 @@
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129">
-        <v>3</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -6166,28 +4606,16 @@
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -6199,28 +4627,16 @@
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>1</v>
-      </c>
-      <c r="L131">
-        <v>2</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6232,28 +4648,16 @@
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
-      <c r="J132">
-        <v>1</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C133" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -6265,28 +4669,16 @@
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="L133">
-        <v>2</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C134" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -6298,28 +4690,16 @@
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
-      <c r="L134">
-        <v>2</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6331,28 +4711,16 @@
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
-      <c r="J135">
-        <v>1</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -6364,20 +4732,8 @@
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>1</v>
-      </c>
-      <c r="L136">
-        <v>2</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -6387,13 +4743,9 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137"/>
-      <c r="M137"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M136" xr:uid="{664DE13B-5BAE-4C9A-BF44-B141580213B2}"/>
+  <autoFilter ref="A1:I136" xr:uid="{664DE13B-5BAE-4C9A-BF44-B141580213B2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>